--- a/config-nssd-migration-perinatal_workflow/forms/app/pssup_form.xlsx
+++ b/config-nssd-migration-perinatal_workflow/forms/app/pssup_form.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
   <si>
     <t>type</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>epds_id</t>
   </si>
   <si>
     <t xml:space="preserve">pssupp form </t>
@@ -2494,7 +2497,10 @@
         <v>66</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -2627,10 +2633,10 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
@@ -2643,7 +2649,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B42" s="49" t="s">
         <v>64</v>
@@ -3776,10 +3782,10 @@
       <c r="M82" s="75"/>
       <c r="N82" s="75"/>
       <c r="O82" s="41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P82" s="42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q82" s="83"/>
       <c r="R82" s="5"/>
@@ -3808,10 +3814,10 @@
       <c r="M83" s="75"/>
       <c r="N83" s="75"/>
       <c r="O83" s="41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P83" s="42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q83" s="83"/>
       <c r="R83" s="5"/>
@@ -11396,7 +11402,7 @@
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
       <c r="A1" s="113" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="114" t="s">
         <v>1</v>
@@ -13263,25 +13269,25 @@
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
       <c r="A1" s="127" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="127" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="127" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="127" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="127" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="127" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="127" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -13305,42 +13311,42 @@
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9">
         <v>1.0</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="9">
         <v>1.0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" ht="12.0" customHeight="1">
